--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_42.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,193 +512,193 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9954380468002013</v>
+        <v>0.9160053509982287</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7227236854408423</v>
+        <v>0.6311051735267947</v>
       </c>
       <c r="D2" t="n">
-        <v>0.715256055005425</v>
+        <v>0.6523347275861037</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9976098798084655</v>
+        <v>0.8439772405726391</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01914554167496476</v>
+        <v>0.3525075735122415</v>
       </c>
       <c r="G2" t="n">
-        <v>1.854147992197119</v>
+        <v>2.466801403230813</v>
       </c>
       <c r="H2" t="n">
-        <v>1.018512580843035</v>
+        <v>1.243578520633761</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01846512295997115</v>
+        <v>0.4112940576512056</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2402789679901473</v>
+        <v>1.647454739507843</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1383674155101726</v>
+        <v>0.5937234823655213</v>
       </c>
       <c r="L2" t="n">
-        <v>1.00267041162915</v>
+        <v>0.7120183462796412</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1442580028484772</v>
+        <v>0.6189995201868632</v>
       </c>
       <c r="N2" t="n">
-        <v>137.9113708023338</v>
+        <v>36.08536634363901</v>
       </c>
       <c r="O2" t="n">
-        <v>217.1382994187668</v>
+        <v>56.80625536639842</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_42_1</t>
+          <t>model_1_42_3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9954896618721472</v>
+        <v>0.9045784464523274</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7226696593366249</v>
+        <v>0.6288972182359167</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7151265266173136</v>
+        <v>0.6541595771536772</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9975512252504282</v>
+        <v>0.7316998543972211</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0189289242596348</v>
+        <v>0.4004638474190076</v>
       </c>
       <c r="G3" t="n">
-        <v>1.854509265004789</v>
+        <v>2.481566010427612</v>
       </c>
       <c r="H3" t="n">
-        <v>1.018975896376823</v>
+        <v>1.237051139541407</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01891826486896782</v>
+        <v>0.7072702467152024</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2378456530692127</v>
+        <v>1.699952277014244</v>
       </c>
       <c r="K3" t="n">
-        <v>0.13758242714691</v>
+        <v>0.6328221293689149</v>
       </c>
       <c r="L3" t="n">
-        <v>1.002640197928499</v>
+        <v>0.6728403878365512</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1434395959054406</v>
+        <v>0.6597626775385482</v>
       </c>
       <c r="N3" t="n">
-        <v>137.9341282853065</v>
+        <v>35.83026357032978</v>
       </c>
       <c r="O3" t="n">
-        <v>217.1610569017395</v>
+        <v>56.55115259308918</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_42_2</t>
+          <t>model_1_42_1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9955385738092368</v>
+        <v>0.9141583098138125</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7226142330817806</v>
+        <v>0.6256113112478453</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7149953835554219</v>
+        <v>0.6530462109454724</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9974890770733809</v>
+        <v>0.8246386211448704</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01872365132303536</v>
+        <v>0.3602592102395047</v>
       </c>
       <c r="G4" t="n">
-        <v>1.854879900626146</v>
+        <v>2.503538885587057</v>
       </c>
       <c r="H4" t="n">
-        <v>1.019444987505098</v>
+        <v>1.241033585911474</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01939839709620101</v>
+        <v>0.4622728974244025</v>
       </c>
       <c r="J4" t="n">
-        <v>0.235430917945015</v>
+        <v>1.658170551888992</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1368343937869254</v>
+        <v>0.6002159696638408</v>
       </c>
       <c r="L4" t="n">
-        <v>1.002611566550691</v>
+        <v>0.7056856336473571</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1426597172166789</v>
+        <v>0.6257684061107737</v>
       </c>
       <c r="N4" t="n">
-        <v>137.9559355552898</v>
+        <v>36.04186295637006</v>
       </c>
       <c r="O4" t="n">
-        <v>217.1828641717228</v>
+        <v>56.76275197912947</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_42_3</t>
+          <t>model_1_42_2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9955847499874142</v>
+        <v>0.913148280454558</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7225574373073527</v>
+        <v>0.6224063198842393</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7148625550541596</v>
+        <v>0.6533350730167027</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9974234610023914</v>
+        <v>0.8143542217913105</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01852985978134973</v>
+        <v>0.3644980873922556</v>
       </c>
       <c r="G5" t="n">
-        <v>1.855259694231266</v>
+        <v>2.524970677593119</v>
       </c>
       <c r="H5" t="n">
-        <v>1.019920107352273</v>
+        <v>1.240000343031869</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01990532089997522</v>
+        <v>0.4893837648142359</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2330423141505006</v>
+        <v>1.663492737539007</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1361244275703289</v>
+        <v>0.6037367699521502</v>
       </c>
       <c r="L5" t="n">
-        <v>1.002584536592733</v>
+        <v>0.7022226758441987</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1419195262684093</v>
+        <v>0.6294390941564177</v>
       </c>
       <c r="N5" t="n">
-        <v>137.976743611658</v>
+        <v>36.01846794951273</v>
       </c>
       <c r="O5" t="n">
-        <v>217.2036722280911</v>
+        <v>56.73935697227214</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9956283201824537</v>
+        <v>0.9033403805347326</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7224993801015458</v>
+        <v>0.596857578866009</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7147278212833124</v>
+        <v>0.6542654908749387</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9973545583907848</v>
+        <v>0.7201298043198791</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01834700499341523</v>
+        <v>0.405659745224954</v>
       </c>
       <c r="G6" t="n">
-        <v>1.855647923033826</v>
+        <v>2.69581522642316</v>
       </c>
       <c r="H6" t="n">
-        <v>1.020402042238282</v>
+        <v>1.236672292301686</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02043763521625358</v>
+        <v>0.737770238261328</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2306723131601553</v>
+        <v>1.704621550537398</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1354511166193001</v>
+        <v>0.6369142369463521</v>
       </c>
       <c r="L6" t="n">
-        <v>1.00255903208832</v>
+        <v>0.6685955904047977</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1412175510762493</v>
+        <v>0.6640289946073874</v>
       </c>
       <c r="N6" t="n">
-        <v>137.9965778668407</v>
+        <v>35.80448107340478</v>
       </c>
       <c r="O6" t="n">
-        <v>217.2235064832738</v>
+        <v>56.52537009616419</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9956693014297046</v>
+        <v>0.9003352859148499</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7224400294122044</v>
+        <v>0.5902866073781079</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7145916475650118</v>
+        <v>0.6540611100271958</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9972823324142061</v>
+        <v>0.6925168582263812</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0181750154655161</v>
+        <v>0.4182714844871448</v>
       </c>
       <c r="G7" t="n">
-        <v>1.856044801366737</v>
+        <v>2.739755343019296</v>
       </c>
       <c r="H7" t="n">
-        <v>1.020889127732836</v>
+        <v>1.23740335074338</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0209956245354328</v>
+        <v>0.8105611610996476</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2283270112137884</v>
+        <v>1.714793186051763</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1348147449855397</v>
+        <v>0.6467391162494694</v>
       </c>
       <c r="L7" t="n">
-        <v>1.002535043065539</v>
+        <v>0.6582924088509139</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1405540877845688</v>
+        <v>0.6742721393627424</v>
       </c>
       <c r="N7" t="n">
-        <v>138.0154148092809</v>
+        <v>35.7432491457242</v>
       </c>
       <c r="O7" t="n">
-        <v>217.2423434257139</v>
+        <v>56.46413816848361</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9957077872131689</v>
+        <v>0.8987604475451114</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7223795909121511</v>
+        <v>0.5869788551759133</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7144540440740689</v>
+        <v>0.6539001407712886</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9972069620263957</v>
+        <v>0.6781904488374328</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01801349886529246</v>
+        <v>0.4248807442315217</v>
       </c>
       <c r="G8" t="n">
-        <v>1.856448953894887</v>
+        <v>2.76187429722617</v>
       </c>
       <c r="H8" t="n">
-        <v>1.021381327441231</v>
+        <v>1.237979128438226</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0215779063317151</v>
+        <v>0.8483272349133607</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2260013850402151</v>
+        <v>1.719839400436138</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1342143765223847</v>
+        <v>0.6518287691039125</v>
       </c>
       <c r="L8" t="n">
-        <v>1.002512514802048</v>
+        <v>0.6528929630118105</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1399281603930033</v>
+        <v>0.679578469276233</v>
       </c>
       <c r="N8" t="n">
-        <v>138.033267730375</v>
+        <v>35.71189350248392</v>
       </c>
       <c r="O8" t="n">
-        <v>217.260196346808</v>
+        <v>56.43278252524333</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9957438127178408</v>
+        <v>0.8954698408366097</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7223179614601031</v>
+        <v>0.5802127879738119</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7143148981224787</v>
+        <v>0.6534631380074258</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9971284891364933</v>
+        <v>0.6485215850269426</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01786230752885158</v>
+        <v>0.4386907166521764</v>
       </c>
       <c r="G9" t="n">
-        <v>1.85686107032451</v>
+        <v>2.807119019761497</v>
       </c>
       <c r="H9" t="n">
-        <v>1.021879044441923</v>
+        <v>1.239542261985687</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02218415683167089</v>
+        <v>0.9265377948810471</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2236958492017359</v>
+        <v>1.72985618392187</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1336499439912026</v>
+        <v>0.662337313347343</v>
       </c>
       <c r="L9" t="n">
-        <v>1.002491426701752</v>
+        <v>0.6416108828683763</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1393396988004323</v>
+        <v>0.6905343840037917</v>
       </c>
       <c r="N9" t="n">
-        <v>138.0501250218719</v>
+        <v>35.6479212641458</v>
       </c>
       <c r="O9" t="n">
-        <v>217.277053638305</v>
+        <v>56.36881028690521</v>
       </c>
     </row>
     <row r="10">
@@ -904,95 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9957774368006015</v>
+        <v>0.8825505827465967</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7222551612564067</v>
+        <v>0.5746113976842588</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7141744165830234</v>
+        <v>0.6507556264582619</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9970470385405786</v>
+        <v>0.5345463641027282</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01772119444645422</v>
+        <v>0.4929100791355276</v>
       </c>
       <c r="G10" t="n">
-        <v>1.857281015575796</v>
+        <v>2.844575542419769</v>
       </c>
       <c r="H10" t="n">
-        <v>1.022381538762967</v>
+        <v>1.249226873806507</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02281341191016257</v>
+        <v>1.226989672912581</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2214119131280649</v>
+        <v>1.764213563929729</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1331209767333992</v>
+        <v>0.7020755508743539</v>
       </c>
       <c r="L10" t="n">
-        <v>1.002471744311843</v>
+        <v>0.5973162837026174</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1387882123113511</v>
+        <v>0.7319643605718195</v>
       </c>
       <c r="N10" t="n">
-        <v>138.0659878587843</v>
+        <v>35.41485703367621</v>
       </c>
       <c r="O10" t="n">
-        <v>217.2929164752173</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>model_1_42_9</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.995808756315207</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7221913146289354</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.7140328325117</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.9969627298406036</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.01758975314360451</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.857707958267683</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.022887976776575</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.02346474756982775</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.2191501825630708</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1326263666983474</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.00245341093744</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.1382725457031232</v>
-      </c>
-      <c r="N11" t="n">
-        <v>138.080877508473</v>
-      </c>
-      <c r="O11" t="n">
-        <v>217.3078061249061</v>
+        <v>56.13574605643562</v>
       </c>
     </row>
   </sheetData>
